--- a/Remasking/HERVH_LTRremasking.xlsx
+++ b/Remasking/HERVH_LTRremasking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\LTR_recombination\7up\figures\supp\remasking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\LTR_recombination\7up\figures\code\Remasking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6BE871-8B8A-4BC4-9DC3-5D7CC2CA1ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6554AF2-CF5C-4BBC-AEBA-08A95E4C581D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="6120" windowWidth="10320" windowHeight="6636" firstSheet="1" activeTab="2" xr2:uid="{F10D3E28-7D00-4E31-9B6D-42D9D08C7768}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F10D3E28-7D00-4E31-9B6D-42D9D08C7768}"/>
   </bookViews>
   <sheets>
     <sheet name="remasked_onecode_counts" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16848" uniqueCount="3410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16849" uniqueCount="3411">
   <si>
     <t>subfamily</t>
   </si>
@@ -10266,6 +10266,9 @@
   </si>
   <si>
     <t>interpret this as 297 5' and solo previously annotated LTR7 were annotated as LTR7o (5' and solo) in the custom library RM run</t>
+  </si>
+  <si>
+    <t>*Figures 1-4 use solo and full (from OneCode output) insertions defined in Dfam. For figure 5 we remasked hg38 no alt with a new library and used the full and solo insertions (OneCode). Truncated insertions were discarded from all analyses.</t>
   </si>
 </sst>
 </file>
@@ -10652,10 +10655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA2E1B3-7193-4C91-BC5A-353E5ED8E995}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11162,6 +11165,11 @@
       <c r="E19" s="1">
         <f t="shared" si="5"/>
         <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3410</v>
       </c>
     </row>
   </sheetData>
@@ -11209,11 +11217,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64442BA1-F8C7-4B3C-8594-962749264369}">
   <dimension ref="A1:H3354"/>
   <sheetViews>
-    <sheetView topLeftCell="A455" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H475" sqref="H475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -98428,8 +98440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB711F17-8A5C-47BB-A966-7B661BFA40AC}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
